--- a/static/templates/IT_Requirements_Traceability_Matrix.xlsx
+++ b/static/templates/IT_Requirements_Traceability_Matrix.xlsx
@@ -449,14 +449,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>PRODUCT - OPEN ACTION ITEM LOG</t>
+          <t>IT - OPEN ACTION ITEM LOG</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Project: PRODUCT Requirements Traceability Matrix</t>
+          <t>Project: IT Requirements Traceability Matrix</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Security Team</t>
+          <t>Ethics Committee</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>IT Compliance Officers</t>
+          <t>Compliance Officers</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">

--- a/static/templates/IT_Requirements_Traceability_Matrix.xlsx
+++ b/static/templates/IT_Requirements_Traceability_Matrix.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Chief Technology Officer</t>
+          <t>Chief Data Officer</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -570,12 +570,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Dependent on Cloud Infrastructure Migration milestone completion</t>
+          <t>Dependent on AI/ML Implementation milestone completion</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Critical action for Information Technology success</t>
+          <t>Critical action for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>IT Managers</t>
+          <t>Data Scientists</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -615,12 +615,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Dependent on Cloud Infrastructure Migration milestone completion</t>
+          <t>Dependent on AI/ML Implementation milestone completion</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Critical action for Information Technology success</t>
+          <t>Critical action for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>DevOps Engineers</t>
+          <t>ML Engineers</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -660,12 +660,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Dependent on Cloud Infrastructure Migration milestone completion</t>
+          <t>Dependent on AI/ML Implementation milestone completion</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Critical action for Information Technology success</t>
+          <t>Critical action for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>System Administrators</t>
+          <t>Business Analysts</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Dependent on Cloud Infrastructure Migration milestone completion</t>
+          <t>Dependent on AI/ML Implementation milestone completion</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Critical action for Information Technology success</t>
+          <t>Critical action for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -750,12 +750,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Dependent on Cloud Infrastructure Migration milestone completion</t>
+          <t>Dependent on AI/ML Implementation milestone completion</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Critical action for Information Technology success</t>
+          <t>Critical action for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -795,12 +795,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Dependent on Cloud Infrastructure Migration milestone completion</t>
+          <t>Dependent on AI/ML Implementation milestone completion</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Critical action for Information Technology success</t>
+          <t>Critical action for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Chief Technology Officer</t>
+          <t>Chief Data Officer</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -840,12 +840,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Dependent on Cloud Infrastructure Migration milestone completion</t>
+          <t>Dependent on AI/ML Implementation milestone completion</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Critical action for Information Technology success</t>
+          <t>Critical action for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>IT Managers</t>
+          <t>Data Scientists</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -885,12 +885,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Dependent on Cloud Infrastructure Migration milestone completion</t>
+          <t>Dependent on AI/ML Implementation milestone completion</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Critical action for Information Technology success</t>
+          <t>Critical action for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>DevOps Engineers</t>
+          <t>ML Engineers</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Dependent on Cloud Infrastructure Migration milestone completion</t>
+          <t>Dependent on AI/ML Implementation milestone completion</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Critical action for Information Technology success</t>
+          <t>Critical action for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>System Administrators</t>
+          <t>Business Analysts</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -980,12 +980,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Dependent on Cloud Infrastructure Migration milestone completion</t>
+          <t>Dependent on AI/ML Implementation milestone completion</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Critical action for Information Technology success</t>
+          <t>Critical action for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>

--- a/static/templates/IT_Requirements_Traceability_Matrix.xlsx
+++ b/static/templates/IT_Requirements_Traceability_Matrix.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Chief Data Officer</t>
+          <t>Chief Technology Officer</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -570,12 +570,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Dependent on AI/ML Implementation milestone completion</t>
+          <t>Dependent on Cloud Infrastructure Migration milestone completion</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Critical action for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical action for Information Technology success</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Data Scientists</t>
+          <t>IT Managers</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -615,12 +615,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Dependent on AI/ML Implementation milestone completion</t>
+          <t>Dependent on Cloud Infrastructure Migration milestone completion</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Critical action for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical action for Information Technology success</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ML Engineers</t>
+          <t>DevOps Engineers</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -660,12 +660,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Dependent on AI/ML Implementation milestone completion</t>
+          <t>Dependent on Cloud Infrastructure Migration milestone completion</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Critical action for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical action for Information Technology success</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Business Analysts</t>
+          <t>System Administrators</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Dependent on AI/ML Implementation milestone completion</t>
+          <t>Dependent on Cloud Infrastructure Migration milestone completion</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Critical action for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical action for Information Technology success</t>
         </is>
       </c>
     </row>
@@ -750,12 +750,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Dependent on AI/ML Implementation milestone completion</t>
+          <t>Dependent on Cloud Infrastructure Migration milestone completion</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Critical action for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical action for Information Technology success</t>
         </is>
       </c>
     </row>
@@ -795,12 +795,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Dependent on AI/ML Implementation milestone completion</t>
+          <t>Dependent on Cloud Infrastructure Migration milestone completion</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Critical action for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical action for Information Technology success</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Chief Data Officer</t>
+          <t>Chief Technology Officer</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -840,12 +840,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Dependent on AI/ML Implementation milestone completion</t>
+          <t>Dependent on Cloud Infrastructure Migration milestone completion</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Critical action for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical action for Information Technology success</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Data Scientists</t>
+          <t>IT Managers</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -885,12 +885,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Dependent on AI/ML Implementation milestone completion</t>
+          <t>Dependent on Cloud Infrastructure Migration milestone completion</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Critical action for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical action for Information Technology success</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ML Engineers</t>
+          <t>DevOps Engineers</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Dependent on AI/ML Implementation milestone completion</t>
+          <t>Dependent on Cloud Infrastructure Migration milestone completion</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Critical action for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical action for Information Technology success</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Business Analysts</t>
+          <t>System Administrators</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -980,12 +980,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Dependent on AI/ML Implementation milestone completion</t>
+          <t>Dependent on Cloud Infrastructure Migration milestone completion</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Critical action for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical action for Information Technology success</t>
         </is>
       </c>
     </row>
